--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>381</v>
+        <v>377.5165848720561</v>
       </c>
       <c r="C2">
-        <v>610</v>
+        <v>605.862092896851</v>
       </c>
       <c r="D2">
-        <v>862</v>
+        <v>859.4081215726277</v>
       </c>
       <c r="E2">
-        <v>1053</v>
+        <v>1054.218203400688</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>350</v>
+        <v>354.2488000318697</v>
       </c>
       <c r="C3">
-        <v>572</v>
+        <v>576.5620703043116</v>
       </c>
       <c r="D3">
-        <v>826</v>
+        <v>829.5128950394774</v>
       </c>
       <c r="E3">
-        <v>1024</v>
+        <v>1028.556352226926</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>204</v>
+        <v>200.3093732408394</v>
       </c>
       <c r="C4">
-        <v>344</v>
+        <v>347.2708387582935</v>
       </c>
       <c r="D4">
-        <v>576</v>
+        <v>574.0614425751155</v>
       </c>
       <c r="E4">
-        <v>783</v>
+        <v>770.0498650957028</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>128</v>
+        <v>130.3464593441165</v>
       </c>
       <c r="C5">
-        <v>217</v>
+        <v>219.0103028675416</v>
       </c>
       <c r="D5">
-        <v>317</v>
+        <v>314.0876572614094</v>
       </c>
       <c r="E5">
-        <v>374</v>
+        <v>372.791991144114</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>66.49382152439483</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>99.27596812055262</v>
       </c>
       <c r="D6">
-        <v>154</v>
+        <v>158.1941005816666</v>
       </c>
       <c r="E6">
-        <v>184</v>
+        <v>187.6397414329435</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>109</v>
+        <v>111.4180642391784</v>
       </c>
       <c r="C7">
-        <v>183</v>
+        <v>187.2747926392082</v>
       </c>
       <c r="D7">
-        <v>282</v>
+        <v>287.2662924157567</v>
       </c>
       <c r="E7">
-        <v>339</v>
+        <v>341.2147995783006</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>108.5610867388323</v>
       </c>
       <c r="C8">
-        <v>192</v>
+        <v>199.3182319901114</v>
       </c>
       <c r="D8">
-        <v>273</v>
+        <v>276.7555218267258</v>
       </c>
       <c r="E8">
-        <v>323</v>
+        <v>326.4477621688607</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>176</v>
+        <v>175.6678320388319</v>
       </c>
       <c r="C9">
-        <v>290</v>
+        <v>288.5115740790028</v>
       </c>
       <c r="D9">
-        <v>385</v>
+        <v>387.8404871897369</v>
       </c>
       <c r="E9">
-        <v>426</v>
+        <v>427.8133966681748</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>267</v>
+        <v>266.0637605274405</v>
       </c>
       <c r="C10">
-        <v>479</v>
+        <v>467.6391110285813</v>
       </c>
       <c r="D10">
-        <v>748</v>
+        <v>747.6112428323684</v>
       </c>
       <c r="E10">
-        <v>1017</v>
+        <v>1009.221651457342</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>228</v>
+        <v>232.4492655713701</v>
       </c>
       <c r="C11">
-        <v>414</v>
+        <v>403.3364748608295</v>
       </c>
       <c r="D11">
-        <v>671</v>
+        <v>663.817445183288</v>
       </c>
       <c r="E11">
-        <v>919</v>
+        <v>916.8538657187961</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>56.26714088105341</v>
       </c>
       <c r="C12">
-        <v>114</v>
+        <v>113.2232041804238</v>
       </c>
       <c r="D12">
-        <v>285</v>
+        <v>283.0229133490974</v>
       </c>
       <c r="E12">
-        <v>482</v>
+        <v>477.0849773684319</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>206</v>
+        <v>203.0457098268768</v>
       </c>
       <c r="C13">
-        <v>375</v>
+        <v>362.3155122142903</v>
       </c>
       <c r="D13">
-        <v>624</v>
+        <v>623.7654678184376</v>
       </c>
       <c r="E13">
-        <v>896</v>
+        <v>881.0403330087587</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV.xlsx
@@ -391,7 +391,7 @@
         <v>377.5165848720561</v>
       </c>
       <c r="C2">
-        <v>605.862092896851</v>
+        <v>605.8620928968515</v>
       </c>
       <c r="D2">
         <v>859.4081215726277</v>
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>354.2488000318697</v>
+        <v>354.2488000318698</v>
       </c>
       <c r="C3">
-        <v>576.5620703043116</v>
+        <v>576.5620703043112</v>
       </c>
       <c r="D3">
-        <v>829.5128950394774</v>
+        <v>829.5128950394776</v>
       </c>
       <c r="E3">
-        <v>1028.556352226926</v>
+        <v>1028.556352226927</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>200.3093732408394</v>
+        <v>200.3093732408392</v>
       </c>
       <c r="C4">
-        <v>347.2708387582935</v>
+        <v>347.2708387582942</v>
       </c>
       <c r="D4">
         <v>574.0614425751155</v>
       </c>
       <c r="E4">
-        <v>770.0498650957028</v>
+        <v>770.0498650957035</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,13 +442,13 @@
         <v>130.3464593441165</v>
       </c>
       <c r="C5">
-        <v>219.0103028675416</v>
+        <v>219.0103028675418</v>
       </c>
       <c r="D5">
-        <v>314.0876572614094</v>
+        <v>314.0876572614089</v>
       </c>
       <c r="E5">
-        <v>372.791991144114</v>
+        <v>372.7919911441141</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>66.49382152439483</v>
+        <v>66.49382152439496</v>
       </c>
       <c r="C6">
-        <v>99.27596812055262</v>
+        <v>99.27596812055266</v>
       </c>
       <c r="D6">
-        <v>158.1941005816666</v>
+        <v>158.1941005816663</v>
       </c>
       <c r="E6">
         <v>187.6397414329435</v>
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>108.5610867388323</v>
+        <v>108.5610867388321</v>
       </c>
       <c r="C8">
         <v>199.3182319901114</v>
       </c>
       <c r="D8">
-        <v>276.7555218267258</v>
+        <v>276.755521826726</v>
       </c>
       <c r="E8">
         <v>326.4477621688607</v>
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>175.6678320388319</v>
+        <v>175.6678320388316</v>
       </c>
       <c r="C9">
-        <v>288.5115740790028</v>
+        <v>288.5115740790033</v>
       </c>
       <c r="D9">
-        <v>387.8404871897369</v>
+        <v>387.8404871897376</v>
       </c>
       <c r="E9">
-        <v>427.8133966681748</v>
+        <v>427.8133966681751</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>266.0637605274405</v>
+        <v>266.0637605274407</v>
       </c>
       <c r="C10">
-        <v>467.6391110285813</v>
+        <v>467.6391110285811</v>
       </c>
       <c r="D10">
-        <v>747.6112428323684</v>
+        <v>747.611242832369</v>
       </c>
       <c r="E10">
         <v>1009.221651457342</v>
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>232.4492655713701</v>
+        <v>232.4492655713702</v>
       </c>
       <c r="C11">
-        <v>403.3364748608295</v>
+        <v>403.3364748608297</v>
       </c>
       <c r="D11">
-        <v>663.817445183288</v>
+        <v>663.8174451832883</v>
       </c>
       <c r="E11">
-        <v>916.8538657187961</v>
+        <v>916.8538657187954</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>56.26714088105341</v>
+        <v>56.26714088105346</v>
       </c>
       <c r="C12">
-        <v>113.2232041804238</v>
+        <v>113.223204180424</v>
       </c>
       <c r="D12">
-        <v>283.0229133490974</v>
+        <v>283.0229133490979</v>
       </c>
       <c r="E12">
-        <v>477.0849773684319</v>
+        <v>477.0849773684316</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -578,13 +578,13 @@
         <v>203.0457098268768</v>
       </c>
       <c r="C13">
-        <v>362.3155122142903</v>
+        <v>362.3155122142901</v>
       </c>
       <c r="D13">
-        <v>623.7654678184376</v>
+        <v>623.765467818438</v>
       </c>
       <c r="E13">
-        <v>881.0403330087587</v>
+        <v>881.0403330087589</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>377.5165848720561</v>
+        <v>378</v>
       </c>
       <c r="C2">
-        <v>605.8620928968515</v>
+        <v>606</v>
       </c>
       <c r="D2">
-        <v>859.4081215726277</v>
+        <v>859</v>
       </c>
       <c r="E2">
-        <v>1054.218203400688</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>354.2488000318698</v>
+        <v>354</v>
       </c>
       <c r="C3">
-        <v>576.5620703043112</v>
+        <v>577</v>
       </c>
       <c r="D3">
-        <v>829.5128950394776</v>
+        <v>830</v>
       </c>
       <c r="E3">
-        <v>1028.556352226927</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>200.3093732408392</v>
+        <v>200</v>
       </c>
       <c r="C4">
-        <v>347.2708387582942</v>
+        <v>347</v>
       </c>
       <c r="D4">
-        <v>574.0614425751155</v>
+        <v>574</v>
       </c>
       <c r="E4">
-        <v>770.0498650957035</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>130.3464593441165</v>
+        <v>130</v>
       </c>
       <c r="C5">
-        <v>219.0103028675418</v>
+        <v>219</v>
       </c>
       <c r="D5">
-        <v>314.0876572614089</v>
+        <v>314</v>
       </c>
       <c r="E5">
-        <v>372.7919911441141</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>66.49382152439496</v>
+        <v>66</v>
       </c>
       <c r="C6">
-        <v>99.27596812055266</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>158.1941005816663</v>
+        <v>158</v>
       </c>
       <c r="E6">
-        <v>187.6397414329435</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>111.4180642391784</v>
+        <v>111</v>
       </c>
       <c r="C7">
-        <v>187.2747926392082</v>
+        <v>187</v>
       </c>
       <c r="D7">
-        <v>287.2662924157567</v>
+        <v>287</v>
       </c>
       <c r="E7">
-        <v>341.2147995783006</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>108.5610867388321</v>
+        <v>109</v>
       </c>
       <c r="C8">
-        <v>199.3182319901114</v>
+        <v>199</v>
       </c>
       <c r="D8">
-        <v>276.755521826726</v>
+        <v>277</v>
       </c>
       <c r="E8">
-        <v>326.4477621688607</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>175.6678320388316</v>
+        <v>176</v>
       </c>
       <c r="C9">
-        <v>288.5115740790033</v>
+        <v>289</v>
       </c>
       <c r="D9">
-        <v>387.8404871897376</v>
+        <v>388</v>
       </c>
       <c r="E9">
-        <v>427.8133966681751</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>266.0637605274407</v>
+        <v>266</v>
       </c>
       <c r="C10">
-        <v>467.6391110285811</v>
+        <v>468</v>
       </c>
       <c r="D10">
-        <v>747.611242832369</v>
+        <v>748</v>
       </c>
       <c r="E10">
-        <v>1009.221651457342</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>232.4492655713702</v>
+        <v>232</v>
       </c>
       <c r="C11">
-        <v>403.3364748608297</v>
+        <v>403</v>
       </c>
       <c r="D11">
-        <v>663.8174451832883</v>
+        <v>664</v>
       </c>
       <c r="E11">
-        <v>916.8538657187954</v>
+        <v>917</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>56.26714088105346</v>
+        <v>56</v>
       </c>
       <c r="C12">
-        <v>113.223204180424</v>
+        <v>113</v>
       </c>
       <c r="D12">
-        <v>283.0229133490979</v>
+        <v>283</v>
       </c>
       <c r="E12">
-        <v>477.0849773684316</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>203.0457098268768</v>
+        <v>203</v>
       </c>
       <c r="C13">
-        <v>362.3155122142901</v>
+        <v>362</v>
       </c>
       <c r="D13">
-        <v>623.765467818438</v>
+        <v>624</v>
       </c>
       <c r="E13">
-        <v>881.0403330087589</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>
